--- a/ExcelProject/Search Course.xlsx
+++ b/ExcelProject/Search Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078B41E-C955-4663-99E5-5EAA7B30AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DE907-A31F-46B1-8A0C-9E8F4FF2C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2355" windowWidth="14610" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="2715" windowWidth="14610" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchCourse" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Execute</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Revise</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Failed</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>TC1:02</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
   </si>
   <si>
     <t>กรุณากรอกคำค้นหา</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,11 +204,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +241,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -559,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +595,7 @@
     <col min="7" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -591,225 +611,258 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>123456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>

--- a/ExcelProject/Search Course.xlsx
+++ b/ExcelProject/Search Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DE907-A31F-46B1-8A0C-9E8F4FF2C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CC0AF-3000-49C7-A7EC-06A4C6924494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="2715" windowWidth="14610" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchCourse" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Execute</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,9 +637,7 @@
       <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -660,9 +658,7 @@
       <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -683,9 +679,7 @@
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -706,9 +700,7 @@
       <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -729,9 +721,7 @@
       <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -752,9 +742,7 @@
       <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -775,9 +763,7 @@
       <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -798,9 +784,7 @@
       <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -821,9 +805,7 @@
       <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -842,9 +824,7 @@
       <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>

--- a/ExcelProject/Search Course.xlsx
+++ b/ExcelProject/Search Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463CC0AF-3000-49C7-A7EC-06A4C6924494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6564A5-6C07-4AEB-9F58-65A81C46BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Execute</t>
   </si>
@@ -52,15 +52,9 @@
     <t>คณิตศาสตร์</t>
   </si>
   <si>
-    <t>แสดงข้อมูลการค้นหารายวิชาสำเร็จ</t>
-  </si>
-  <si>
     <t>ผลการค้นหา: คณิตศาสตร์</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>TC1:03</t>
   </si>
   <si>
-    <t>กรุณากรอกเป็นภาษาอังกฤษหรือภาษาไทยเท่านั้น</t>
-  </si>
-  <si>
     <t>กรุณากรอกเฉพาะตัวอักษรภาษาไทยหรืออังกฤษ (ไม่เกิน 20 ตัว)</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
   </si>
   <si>
     <t>คณิตศาสต์คณะวิทยา ศาส</t>
-  </si>
-  <si>
-    <t>กรุณากรอกมีความยาวตั้งแต่ 1 ถึง 20 ตัวอักษร</t>
   </si>
   <si>
     <t>TC1:09</t>
@@ -221,13 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,7 +569,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,233 +583,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="5">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
-        <v>123456</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="2"/>
     </row>
